--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3197926.710590032</v>
+        <v>3193668.444936797</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>93.53422117179468</v>
       </c>
       <c r="G2" t="n">
         <v>412.9385639094162</v>
       </c>
       <c r="H2" t="n">
-        <v>315.2627091761996</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359321</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.360597680916442</v>
+        <v>1.36059768091647</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>155.1464635459283</v>
       </c>
       <c r="T2" t="n">
         <v>212.7466796050973</v>
       </c>
       <c r="U2" t="n">
-        <v>36.87865193598083</v>
+        <v>251.156519019379</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>100.018744405379</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370734</v>
+        <v>45.84481919370735</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.62032152353348</v>
+        <v>20.11551727184605</v>
       </c>
       <c r="S3" t="n">
         <v>148.187383735635</v>
@@ -797,7 +797,7 @@
         <v>225.8581620548773</v>
       </c>
       <c r="V3" t="n">
-        <v>231.2957828977376</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9304924685165</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>123.5587419097206</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>6.00120071572861</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2611846170395</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>120.4553629475955</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -901,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>266.8544373912929</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>303.3912066963572</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>111.5266024655408</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>226.4267671889062</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>24.99503910297076</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>294.9052374340908</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>99.33776828966238</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>202.3860496764734</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881293</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>73.9322284908373</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>87.2147151485303</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710086</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>48.85497112745768</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428253</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>33.0162797694411</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.56071137692076</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>267.6269762416974</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
-        <v>102.9630220374181</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>91.40260836685067</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3240,13 +3240,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>109.1623230749908</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>73.56194264363172</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>39.99000985192119</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>59.96838802184633</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695538</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
-        <v>67.60860312451699</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2028.756181082251</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="C2" t="n">
-        <v>1659.793664141839</v>
+        <v>1308.343542543811</v>
       </c>
       <c r="D2" t="n">
-        <v>1301.527965535089</v>
+        <v>950.0778439370602</v>
       </c>
       <c r="E2" t="n">
-        <v>915.7397129368445</v>
+        <v>564.2895913388159</v>
       </c>
       <c r="F2" t="n">
-        <v>908.7942121876411</v>
+        <v>469.8105800541747</v>
       </c>
       <c r="G2" t="n">
-        <v>491.6845516730792</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H2" t="n">
-        <v>173.237370687019</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>239.5208398512383</v>
+        <v>72.11519083088521</v>
       </c>
       <c r="K2" t="n">
-        <v>640.2602765776282</v>
+        <v>472.8546275572751</v>
       </c>
       <c r="L2" t="n">
-        <v>776.2050087789648</v>
+        <v>1022.283962163558</v>
       </c>
       <c r="M2" t="n">
-        <v>1231.897935379031</v>
+        <v>1205.218107927276</v>
       </c>
       <c r="N2" t="n">
-        <v>1422.4059552518</v>
+        <v>1828.69958296791</v>
       </c>
       <c r="O2" t="n">
-        <v>1965.954194448895</v>
+        <v>2372.247822165005</v>
       </c>
       <c r="P2" t="n">
-        <v>2392.185658263122</v>
+        <v>2602.377499016428</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4357,25 +4357,25 @@
         <v>2633.671635888808</v>
       </c>
       <c r="S2" t="n">
-        <v>2633.671635888808</v>
+        <v>2476.958036347466</v>
       </c>
       <c r="T2" t="n">
-        <v>2418.775999924063</v>
+        <v>2262.062400382721</v>
       </c>
       <c r="U2" t="n">
-        <v>2381.524836352365</v>
+        <v>2008.368946827793</v>
       </c>
       <c r="V2" t="n">
-        <v>2381.524836352365</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="W2" t="n">
-        <v>2028.756181082251</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="X2" t="n">
-        <v>2028.756181082251</v>
+        <v>1677.306059484222</v>
       </c>
       <c r="Y2" t="n">
-        <v>2028.756181082251</v>
+        <v>1677.306059484222</v>
       </c>
     </row>
     <row r="3">
@@ -4409,40 +4409,40 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>170.2762045496336</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>497.851936862435</v>
+        <v>118.4560672099614</v>
       </c>
       <c r="L3" t="n">
-        <v>999.7223306000291</v>
+        <v>620.3264609475555</v>
       </c>
       <c r="M3" t="n">
-        <v>1241.641187275395</v>
+        <v>993.1165734874702</v>
       </c>
       <c r="N3" t="n">
-        <v>1437.313937931689</v>
+        <v>1645.290452790179</v>
       </c>
       <c r="O3" t="n">
-        <v>1984.020177892692</v>
+        <v>2191.996692751183</v>
       </c>
       <c r="P3" t="n">
-        <v>2405.797066257506</v>
+        <v>2613.773581115997</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R3" t="n">
-        <v>2613.207268371013</v>
+        <v>2614.727272665647</v>
       </c>
       <c r="S3" t="n">
-        <v>2463.523042375421</v>
+        <v>2465.043046670055</v>
       </c>
       <c r="T3" t="n">
-        <v>2266.48656248056</v>
+        <v>2268.006566775194</v>
       </c>
       <c r="U3" t="n">
-        <v>2038.34700484937</v>
+        <v>2039.867009144004</v>
       </c>
       <c r="V3" t="n">
         <v>1804.714900912262</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>346.1243886085392</v>
+        <v>519.6668354622486</v>
       </c>
       <c r="C4" t="n">
-        <v>346.1243886085392</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="D4" t="n">
-        <v>346.1243886085392</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E4" t="n">
-        <v>346.1243886085392</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F4" t="n">
-        <v>346.1243886085392</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G4" t="n">
-        <v>177.5077295494317</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H4" t="n">
-        <v>177.5077295494317</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I4" t="n">
         <v>52.70091953961285</v>
@@ -4497,13 +4497,13 @@
         <v>336.0342731039134</v>
       </c>
       <c r="M4" t="n">
-        <v>539.7960902856119</v>
+        <v>539.7960902856117</v>
       </c>
       <c r="N4" t="n">
-        <v>744.1475233066374</v>
+        <v>744.1475233066373</v>
       </c>
       <c r="O4" t="n">
-        <v>916.8828514249431</v>
+        <v>916.8828514249429</v>
       </c>
       <c r="P4" t="n">
         <v>1041.167083351319</v>
@@ -4512,28 +4512,28 @@
         <v>1043.779963221469</v>
       </c>
       <c r="R4" t="n">
-        <v>1037.718144316692</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="S4" t="n">
-        <v>1037.718144316692</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="T4" t="n">
-        <v>1037.718144316692</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="U4" t="n">
-        <v>748.5654325823091</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="V4" t="n">
-        <v>748.5654325823091</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="W4" t="n">
-        <v>748.5654325823091</v>
+        <v>1043.779963221469</v>
       </c>
       <c r="X4" t="n">
-        <v>748.5654325823091</v>
+        <v>922.1078794360185</v>
       </c>
       <c r="Y4" t="n">
-        <v>527.772853438779</v>
+        <v>701.3153002924884</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1220.788153257384</v>
+        <v>1132.072391409515</v>
       </c>
       <c r="C5" t="n">
-        <v>1220.788153257384</v>
+        <v>1132.072391409515</v>
       </c>
       <c r="D5" t="n">
-        <v>862.5224546506331</v>
+        <v>1132.072391409515</v>
       </c>
       <c r="E5" t="n">
-        <v>476.7342020523889</v>
+        <v>746.2841388112706</v>
       </c>
       <c r="F5" t="n">
-        <v>65.74829726278134</v>
+        <v>739.3386380620672</v>
       </c>
       <c r="G5" t="n">
-        <v>52.70091953961285</v>
+        <v>322.2508562984946</v>
       </c>
       <c r="H5" t="n">
         <v>52.70091953961285</v>
@@ -4567,22 +4567,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J5" t="n">
-        <v>241.3408185533492</v>
+        <v>218.2453901612545</v>
       </c>
       <c r="K5" t="n">
-        <v>644.8079315733946</v>
+        <v>621.7125031813</v>
       </c>
       <c r="L5" t="n">
-        <v>1197.621189819594</v>
+        <v>1174.525761427499</v>
       </c>
       <c r="M5" t="n">
-        <v>1829.339000802906</v>
+        <v>1806.243572410811</v>
       </c>
       <c r="N5" t="n">
-        <v>2319.158506392561</v>
+        <v>2000.577785302793</v>
       </c>
       <c r="O5" t="n">
-        <v>2489.327531709521</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P5" t="n">
         <v>2600.061856959047</v>
@@ -4603,16 +4603,16 @@
         <v>2635.045976980643</v>
       </c>
       <c r="V5" t="n">
-        <v>2303.983089637072</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="W5" t="n">
-        <v>1997.527325297317</v>
+        <v>2282.277321710528</v>
       </c>
       <c r="X5" t="n">
-        <v>1997.527325297317</v>
+        <v>1908.811563449448</v>
       </c>
       <c r="Y5" t="n">
-        <v>1607.387993321505</v>
+        <v>1518.672231473637</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K6" t="n">
-        <v>238.9679910598655</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L6" t="n">
-        <v>599.2575280293014</v>
+        <v>624.6702790690885</v>
       </c>
       <c r="M6" t="n">
-        <v>778.7548643839062</v>
+        <v>1265.215628536193</v>
       </c>
       <c r="N6" t="n">
-        <v>1430.928743686615</v>
+        <v>1917.389507838902</v>
       </c>
       <c r="O6" t="n">
-        <v>1980.364752439338</v>
+        <v>2466.825516591625</v>
       </c>
       <c r="P6" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>327.3292335776223</v>
+        <v>650.1945570251878</v>
       </c>
       <c r="C7" t="n">
-        <v>327.3292335776223</v>
+        <v>481.2583740972809</v>
       </c>
       <c r="D7" t="n">
-        <v>177.2125941652866</v>
+        <v>331.1417346849452</v>
       </c>
       <c r="E7" t="n">
-        <v>177.2125941652866</v>
+        <v>183.228641102552</v>
       </c>
       <c r="F7" t="n">
-        <v>177.2125941652866</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="G7" t="n">
-        <v>177.2125941652866</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="H7" t="n">
-        <v>177.2125941652866</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="I7" t="n">
-        <v>52.70091953961285</v>
+        <v>70.57550729897547</v>
       </c>
       <c r="J7" t="n">
         <v>52.70091953961285</v>
@@ -4752,25 +4752,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S7" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T7" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U7" t="n">
-        <v>556.0431398290427</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V7" t="n">
-        <v>556.0431398290427</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W7" t="n">
-        <v>327.3292335776223</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="X7" t="n">
-        <v>327.3292335776223</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="Y7" t="n">
-        <v>327.3292335776223</v>
+        <v>831.8430218554275</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1660.180516923152</v>
+        <v>1220.788153257384</v>
       </c>
       <c r="C8" t="n">
-        <v>1291.217999982741</v>
+        <v>1220.788153257384</v>
       </c>
       <c r="D8" t="n">
-        <v>932.9523013759901</v>
+        <v>862.5224546506331</v>
       </c>
       <c r="E8" t="n">
-        <v>932.9523013759901</v>
+        <v>476.7342020523889</v>
       </c>
       <c r="F8" t="n">
-        <v>907.7047871305651</v>
+        <v>65.74829726278134</v>
       </c>
       <c r="G8" t="n">
-        <v>490.6170053669925</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H8" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4022825530416</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L8" t="n">
-        <v>616.7309383942948</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M8" t="n">
-        <v>1248.448749377606</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N8" t="n">
-        <v>1623.585605852676</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O8" t="n">
-        <v>2170.746810619753</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P8" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.045976980643</v>
@@ -4834,22 +4834,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T8" t="n">
-        <v>2420.246115248354</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U8" t="n">
-        <v>2420.246115248354</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V8" t="n">
-        <v>2420.246115248354</v>
+        <v>2337.161898764389</v>
       </c>
       <c r="W8" t="n">
-        <v>2420.246115248354</v>
+        <v>1984.393243494275</v>
       </c>
       <c r="X8" t="n">
-        <v>2046.780356987274</v>
+        <v>1610.927485233195</v>
       </c>
       <c r="Y8" t="n">
-        <v>2046.780356987274</v>
+        <v>1220.788153257384</v>
       </c>
     </row>
     <row r="9">
@@ -4883,13 +4883,13 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K9" t="n">
-        <v>120.3087392029699</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L9" t="n">
-        <v>624.6702790690885</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M9" t="n">
         <v>1232.27200203395</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>368.1977120421399</v>
+        <v>666.5567829601589</v>
       </c>
       <c r="C10" t="n">
-        <v>368.1977120421399</v>
+        <v>497.620600032252</v>
       </c>
       <c r="D10" t="n">
-        <v>368.1977120421399</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E10" t="n">
-        <v>368.1977120421399</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F10" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G10" t="n">
         <v>52.70091953961285</v>
@@ -4986,28 +4986,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R10" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S10" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T10" t="n">
-        <v>696.5284430307253</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U10" t="n">
-        <v>696.5284430307253</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V10" t="n">
-        <v>696.5284430307253</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W10" t="n">
-        <v>596.1872629401572</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="X10" t="n">
-        <v>368.1977120421399</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="Y10" t="n">
-        <v>368.1977120421399</v>
+        <v>848.2052477903986</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,58 +5029,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
@@ -5132,16 +5132,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703109</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>545.3854261579752</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>397.4723325755821</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>250.5823850776717</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,13 +5266,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,10 +5281,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5293,37 +5293,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5509,22 +5509,22 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5533,10 +5533,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2383.002557118213</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>2383.002557118213</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>2878.328163333972</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M18" t="n">
-        <v>3475.706650960524</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N18" t="n">
-        <v>3678.660617711126</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>4230.570347950413</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>4654.193497445481</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>662.1522880254209</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>493.2161050975141</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>782.8410298377091</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377091</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
         <v>484.8112968429803</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058937</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.3568999154069</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5992,7 +5992,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6068,28 +6068,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2149.810879820877</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3026.711098656041</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>3026.711098656041</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>2876.594459243706</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4690.833152398593</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>4471.231687421535</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>4182.156460765733</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>3927.471972559846</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>3657.141693527828</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>3429.152142629811</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>3208.359563486281</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6265,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3047.140839595365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>2878.204656667458</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>2774.20160410441</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2626.288510522017</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2479.398563024106</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3677.571434467152</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3449.581883569135</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3228.789304425605</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,25 +6445,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6496,16 +6496,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2453.684166529967</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3051.062654156519</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3678.660617711126</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4230.570347950413</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>641.1291986799072</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>641.1291986799072</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>491.0125592675714</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2104.736678450344</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1815.661451794542</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1560.976963588655</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1271.559793551694</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>1043.570242653677</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>822.7776635101469</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6712,40 +6712,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2086.797572684546</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1797.722346028744</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,13 +6928,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6964,7 +6964,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.28814409505</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1815.886107649656</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1031.260321675049</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>862.3241387471426</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>712.2074993348068</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>564.2944057524137</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>417.4044582545033</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>250.2083589693833</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7134,13 +7134,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1433.701365648819</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1212.908786505289</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7177,25 +7177,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>924.8344286397182</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1552.432392194325</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2104.342122433612</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3046.798896214207</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>3006.404946868832</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>2856.288307456496</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>2708.375213874103</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>2561.485266376193</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>4221.331149328841</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>3966.646661122954</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>3677.229491085994</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>3449.239940187977</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>3228.447361044447</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7435,13 +7435,13 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>2322.475387565878</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>2322.475387565878</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>2817.800993781637</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>2817.800993781637</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3445.398957336244</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2939.372134388645</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>2939.372134388645</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>2789.255494976309</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>2789.255494976309</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111739</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075831</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,16 +7721,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7739,16 +7739,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>810.0653816078141</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>641.1291986799072</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>491.0125592675715</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851784</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851784</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2311.62586152507</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2092.024396548011</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1802.949169892209</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1548.264681686322</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1258.847511649361</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1030.857960751344</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>810.0653816078141</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>275.5139200367142</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>123.7160950777412</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>7.3281211888728</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>65.98845490199756</v>
+        <v>198.1816426439657</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>461.1122511579958</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>145.7678996245034</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8227,13 +8227,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>298.4699926239126</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>225.3130696502444</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>458.0981188384286</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>37.16554713105234</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>182.6289329122089</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>432.4286733436941</v>
+        <v>48.10560617263505</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>91.59190980143154</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>97.5789915191115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194133</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.27126880501653</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>18.89602209489357</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D28" t="n">
-        <v>45.65245098079421</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>126.0028419604376</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>108.2431272522975</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>66.73277020259216</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>127.2568112467066</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>85.45266000108492</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
-        <v>113.4176828771276</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>712352.7143788788</v>
+        <v>712352.7143788787</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>712352.7143788788</v>
+        <v>712352.7143788787</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>712352.7143788788</v>
+        <v>712352.7143788787</v>
       </c>
     </row>
     <row r="16">
@@ -26322,40 +26322,40 @@
         <v>718411.5486312476</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287558</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="H2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287551</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="K2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="L2" t="n">
         <v>706253.2747287552</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>787455.5478918878</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.247008499657</v>
+        <v>4906.24700849981</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765845</v>
+        <v>775688.3472765851</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>172360.9924002808</v>
       </c>
       <c r="K3" t="n">
-        <v>6.548361852765082e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128077.5968157138</v>
+        <v>128077.5968157139</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,10 +26426,10 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707312</v>
       </c>
       <c r="G4" t="n">
         <v>6897.424496707361</v>
@@ -26438,28 +26438,28 @@
         <v>6897.424496707359</v>
       </c>
       <c r="I4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="J4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="L4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="K4" t="n">
-        <v>6897.424496707412</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>6897.424496707359</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707386</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707356</v>
+        <v>6897.424496707414</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>86618.07783747558</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-346436.600622062</v>
       </c>
       <c r="C6" t="n">
-        <v>436995.4113636536</v>
+        <v>436995.4113636535</v>
       </c>
       <c r="D6" t="n">
         <v>441901.6583721532</v>
       </c>
       <c r="E6" t="n">
-        <v>-177455.0268684438</v>
+        <v>-177802.4061228007</v>
       </c>
       <c r="F6" t="n">
-        <v>598233.3204081409</v>
+        <v>597885.9411537838</v>
       </c>
       <c r="G6" t="n">
-        <v>598233.3204081412</v>
+        <v>597885.9411537842</v>
       </c>
       <c r="H6" t="n">
-        <v>598233.3204081409</v>
+        <v>597885.9411537842</v>
       </c>
       <c r="I6" t="n">
-        <v>598233.3204081407</v>
+        <v>597885.9411537838</v>
       </c>
       <c r="J6" t="n">
-        <v>425872.3280078601</v>
+        <v>425524.9487535033</v>
       </c>
       <c r="K6" t="n">
-        <v>598233.3204081408</v>
+        <v>597885.9411537838</v>
       </c>
       <c r="L6" t="n">
-        <v>598233.3204081408</v>
+        <v>597885.9411537838</v>
       </c>
       <c r="M6" t="n">
-        <v>470155.7235924273</v>
+        <v>469808.34433807</v>
       </c>
       <c r="N6" t="n">
-        <v>598233.3204081409</v>
+        <v>597885.9411537839</v>
       </c>
       <c r="O6" t="n">
-        <v>598233.3204081408</v>
+        <v>597885.941153784</v>
       </c>
       <c r="P6" t="n">
-        <v>598233.3204081408</v>
+        <v>597885.9411537843</v>
       </c>
     </row>
   </sheetData>
@@ -26712,10 +26712,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225502</v>
+        <v>588.0881844225501</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26798,10 +26798,10 @@
         <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26828,10 +26828,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="P4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26934,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225502</v>
+        <v>588.0881844225501</v>
       </c>
       <c r="C3" t="n">
-        <v>5.387915915514854</v>
+        <v>5.387915915515022</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036091</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.9467938544884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.946793854488</v>
+        <v>513.9467938544882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544877</v>
+        <v>513.9467938544884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>313.3418245699168</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>315.2627091761996</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>119.3310866359321</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>155.1464635459283</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>214.2778670833982</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.504804251687439</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27517,7 +27517,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.504804251687688</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27539,28 +27539,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9304924685165</v>
       </c>
       <c r="H4" t="n">
         <v>152.7984799768616</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>123.5587419097207</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775193</v>
+        <v>18.38275699775194</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>123.6088437736715</v>
+        <v>129.6100444894001</v>
       </c>
       <c r="S4" t="n">
         <v>205.5352037822505</v>
@@ -27593,7 +27593,7 @@
         <v>223.4144181712553</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2611846170395</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>105.2542924414416</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27621,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>48.18644668392261</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -27675,13 +27675,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>45.84976202105582</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>33.89444555739044</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -27794,10 +27794,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>60.09623114768479</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>381.8810066387407</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>32.84702103604411</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>187.1852300469286</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>16.19860367562134</v>
       </c>
     </row>
     <row r="11">
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -30756,7 +30756,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -31047,10 +31047,10 @@
         <v>24.21209293956759</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447384</v>
+        <v>91.14480293447383</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683756</v>
+        <v>200.6562795683755</v>
       </c>
       <c r="K2" t="n">
         <v>300.7317482984521</v>
@@ -31059,25 +31059,25 @@
         <v>373.0843262844687</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451703</v>
+        <v>415.1281986451702</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024189</v>
+        <v>421.8454069024187</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105526</v>
+        <v>398.3366556105525</v>
       </c>
       <c r="P2" t="n">
         <v>339.9711197193698</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.3041524645655</v>
+        <v>255.3041524645654</v>
       </c>
       <c r="R2" t="n">
         <v>148.5085202602332</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031705</v>
+        <v>53.87360604031704</v>
       </c>
       <c r="T2" t="n">
         <v>10.34916995903402</v>
@@ -31123,7 +31123,7 @@
         <v>1.264944396682466</v>
       </c>
       <c r="H3" t="n">
-        <v>12.21669983111751</v>
+        <v>12.2166998311175</v>
       </c>
       <c r="I3" t="n">
         <v>43.55181365770773</v>
@@ -31132,16 +31132,16 @@
         <v>119.5095054777939</v>
       </c>
       <c r="K3" t="n">
-        <v>204.2607800555192</v>
+        <v>204.2607800555191</v>
       </c>
       <c r="L3" t="n">
         <v>274.6538261305504</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102898</v>
+        <v>320.5080605102897</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704982</v>
+        <v>328.9909551704981</v>
       </c>
       <c r="O3" t="n">
         <v>300.9624503808498</v>
@@ -31153,16 +31153,16 @@
         <v>161.4690426361689</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262910966</v>
+        <v>78.53751262910964</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820282</v>
+        <v>23.49578736820281</v>
       </c>
       <c r="T3" t="n">
-        <v>5.098613598908711</v>
+        <v>5.09861359890871</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753072</v>
+        <v>0.08322002609753071</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,46 +31202,46 @@
         <v>1.060486889942303</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577941</v>
+        <v>9.428692530577939</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753765</v>
+        <v>31.89173301753764</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892085</v>
+        <v>74.97642311892083</v>
       </c>
       <c r="K4" t="n">
         <v>123.2092950314785</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646949</v>
+        <v>157.6654781646948</v>
       </c>
       <c r="M4" t="n">
         <v>166.2361403934103</v>
       </c>
       <c r="N4" t="n">
-        <v>162.2834165308983</v>
+        <v>162.2834165308982</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983904</v>
+        <v>149.8950014983903</v>
       </c>
       <c r="P4" t="n">
-        <v>128.2610689435673</v>
+        <v>128.2610689435672</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780507</v>
+        <v>88.80131584780506</v>
       </c>
       <c r="R4" t="n">
-        <v>47.68334688776938</v>
+        <v>47.68334688776937</v>
       </c>
       <c r="S4" t="n">
         <v>18.48139425472177</v>
       </c>
       <c r="T4" t="n">
-        <v>4.531171257026204</v>
+        <v>4.531171257026203</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139844</v>
+        <v>0.05784473945139842</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>750.6021172789107</v>
+        <v>595.3275373121701</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>615.0381444378769</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N18" t="n">
-        <v>336.3457189021232</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32788,7 +32788,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>268.6704608606964</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,19 +33022,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33043,10 +33043,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,13 +33511,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33675,7 +33675,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33736,10 +33736,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.118592441407</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33973,7 +33973,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33982,22 +33982,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>314.5984986256103</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34210,31 +34210,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>216.8572963387068</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>332.1692388321076</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>188.706990213763</v>
+        <v>19.61037504168925</v>
       </c>
       <c r="K2" t="n">
         <v>404.7873098246363</v>
       </c>
       <c r="L2" t="n">
-        <v>137.3179113144815</v>
+        <v>554.9791258649318</v>
       </c>
       <c r="M2" t="n">
-        <v>460.2958854546118</v>
+        <v>184.7819654178975</v>
       </c>
       <c r="N2" t="n">
-        <v>192.4323433058279</v>
+        <v>629.779267717812</v>
       </c>
       <c r="O2" t="n">
-        <v>549.0386254516112</v>
+        <v>549.0386254516111</v>
       </c>
       <c r="P2" t="n">
-        <v>430.5368321355829</v>
+        <v>232.4542190418414</v>
       </c>
       <c r="Q2" t="n">
-        <v>245.3134532500207</v>
+        <v>32.99846259011593</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>118.7629141515361</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>330.8845780937388</v>
+        <v>66.41934108116013</v>
       </c>
       <c r="L3" t="n">
         <v>506.9397916541354</v>
       </c>
       <c r="M3" t="n">
-        <v>244.362481490269</v>
+        <v>376.5556692322371</v>
       </c>
       <c r="N3" t="n">
-        <v>197.6492430871649</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O3" t="n">
         <v>552.2285252131348</v>
@@ -34798,7 +34798,7 @@
         <v>426.0372609745597</v>
       </c>
       <c r="Q3" t="n">
-        <v>231.5645562859965</v>
+        <v>21.48726855014735</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055957</v>
+        <v>100.9398032055956</v>
       </c>
       <c r="L4" t="n">
         <v>185.255503425011</v>
@@ -34874,10 +34874,10 @@
         <v>174.48012941243</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084608</v>
+        <v>125.5396282084607</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.639272596110686</v>
+        <v>2.639272596110672</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>167.2166369915572</v>
       </c>
       <c r="K5" t="n">
         <v>407.5425384040863</v>
@@ -34947,13 +34947,13 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>494.7671773632887</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O5" t="n">
         <v>171.8879043605652</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
         <v>35.33749497130819</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
-        <v>363.9288252216524</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
         <v>658.7614942451606</v>
@@ -35032,10 +35032,10 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>146.9530496838794</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>378.9261176515851</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35193,7 +35193,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>613.7391141059212</v>
+        <v>229.4160469348621</v>
       </c>
       <c r="N9" t="n">
         <v>200.663375406732</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>619.2604051955774</v>
+        <v>463.9858252288368</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>472.9041105158586</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N18" t="n">
-        <v>205.0040068187898</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>134.6960534463662</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36691,10 +36691,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36846,7 +36846,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>73.1808046631526</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819351</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37092,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,13 +37159,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37323,13 +37323,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37630,22 +37630,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>180.6240912112801</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>90.0196696720401</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396443</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>189.5729943876631</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3193668.444936797</v>
+        <v>3195428.975239584</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -670,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>93.53422117179468</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>412.9385639094162</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>14.41043390021805</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36059768091647</v>
+        <v>1.360597680916328</v>
       </c>
       <c r="S2" t="n">
         <v>155.1464635459283</v>
@@ -718,7 +718,7 @@
         <v>251.156519019379</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>100.018744405379</v>
       </c>
       <c r="I3" t="n">
-        <v>45.84481919370735</v>
+        <v>45.84481919370732</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.11551727184605</v>
+        <v>21.62032152353343</v>
       </c>
       <c r="S3" t="n">
         <v>148.187383735635</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>250.1901789092324</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>120.4553629475955</v>
+        <v>120.4553629475962</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -907,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>266.8544373912929</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>266.854437391293</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>25.72585118793717</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>111.5266024655408</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>261.5738420160022</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>294.9052374340908</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>87.2147151485303</v>
+        <v>160.1597912951064</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428253</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703271</v>
+        <v>142.7059665293327</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2611,13 +2611,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>60.64713141731119</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>148.0280580960833</v>
+        <v>26.07046444232026</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>14.75529838241474</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428166</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4036,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>140.176011444184</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1677.306059484222</v>
+        <v>2008.368946827793</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.343542543811</v>
+        <v>1639.406429887381</v>
       </c>
       <c r="D2" t="n">
-        <v>950.0778439370602</v>
+        <v>1281.140731280631</v>
       </c>
       <c r="E2" t="n">
-        <v>564.2895913388159</v>
+        <v>895.3524786823864</v>
       </c>
       <c r="F2" t="n">
-        <v>469.8105800541747</v>
+        <v>484.3665738927788</v>
       </c>
       <c r="G2" t="n">
-        <v>52.70091953961285</v>
+        <v>67.25691337821695</v>
       </c>
       <c r="H2" t="n">
         <v>52.70091953961285</v>
@@ -4330,25 +4330,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>72.11519083088521</v>
+        <v>72.11519083088538</v>
       </c>
       <c r="K2" t="n">
-        <v>472.8546275572751</v>
+        <v>472.8546275572755</v>
       </c>
       <c r="L2" t="n">
         <v>1022.283962163558</v>
       </c>
       <c r="M2" t="n">
-        <v>1205.218107927276</v>
+        <v>1205.218107927277</v>
       </c>
       <c r="N2" t="n">
-        <v>1828.69958296791</v>
+        <v>1828.699582967912</v>
       </c>
       <c r="O2" t="n">
-        <v>2372.247822165005</v>
+        <v>2372.247822165007</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.377499016428</v>
+        <v>2602.377499016427</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
@@ -4366,16 +4366,16 @@
         <v>2008.368946827793</v>
       </c>
       <c r="V2" t="n">
-        <v>1677.306059484222</v>
+        <v>2008.368946827793</v>
       </c>
       <c r="W2" t="n">
-        <v>1677.306059484222</v>
+        <v>2008.368946827793</v>
       </c>
       <c r="X2" t="n">
-        <v>1677.306059484222</v>
+        <v>2008.368946827793</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.306059484222</v>
+        <v>2008.368946827793</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>337.4909562725568</v>
       </c>
       <c r="G3" t="n">
-        <v>200.0378524679829</v>
+        <v>200.0378524679828</v>
       </c>
       <c r="H3" t="n">
-        <v>99.00881771507483</v>
+        <v>99.0088177150748</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
@@ -4412,40 +4412,40 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K3" t="n">
-        <v>118.4560672099614</v>
+        <v>380.2766518524144</v>
       </c>
       <c r="L3" t="n">
-        <v>620.3264609475555</v>
+        <v>515.015103739584</v>
       </c>
       <c r="M3" t="n">
-        <v>993.1165734874702</v>
+        <v>1152.653403174473</v>
       </c>
       <c r="N3" t="n">
         <v>1645.290452790179</v>
       </c>
       <c r="O3" t="n">
-        <v>2191.996692751183</v>
+        <v>2191.996692751182</v>
       </c>
       <c r="P3" t="n">
-        <v>2613.773581115997</v>
+        <v>2613.773581115996</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R3" t="n">
-        <v>2614.727272665647</v>
+        <v>2613.207268371013</v>
       </c>
       <c r="S3" t="n">
-        <v>2465.043046670055</v>
+        <v>2463.523042375422</v>
       </c>
       <c r="T3" t="n">
-        <v>2268.006566775194</v>
+        <v>2266.48656248056</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.867009144004</v>
+        <v>2038.347004849371</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.714900912262</v>
+        <v>1803.194896617628</v>
       </c>
       <c r="W3" t="n">
         <v>1550.47754418406</v>
@@ -4491,22 +4491,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>152.6313247131525</v>
+        <v>152.6313247131526</v>
       </c>
       <c r="L4" t="n">
-        <v>336.0342731039134</v>
+        <v>336.0342731039136</v>
       </c>
       <c r="M4" t="n">
-        <v>539.7960902856117</v>
+        <v>539.7960902856121</v>
       </c>
       <c r="N4" t="n">
-        <v>744.1475233066373</v>
+        <v>744.1475233066377</v>
       </c>
       <c r="O4" t="n">
-        <v>916.8828514249429</v>
+        <v>916.8828514249435</v>
       </c>
       <c r="P4" t="n">
-        <v>1041.167083351319</v>
+        <v>1041.16708335132</v>
       </c>
       <c r="Q4" t="n">
         <v>1043.779963221469</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1132.072391409515</v>
+        <v>862.5224546506331</v>
       </c>
       <c r="C5" t="n">
-        <v>1132.072391409515</v>
+        <v>862.5224546506331</v>
       </c>
       <c r="D5" t="n">
-        <v>1132.072391409515</v>
+        <v>862.5224546506331</v>
       </c>
       <c r="E5" t="n">
-        <v>746.2841388112706</v>
+        <v>476.7342020523889</v>
       </c>
       <c r="F5" t="n">
-        <v>739.3386380620672</v>
+        <v>65.74829726278134</v>
       </c>
       <c r="G5" t="n">
-        <v>322.2508562984946</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H5" t="n">
         <v>52.70091953961285</v>
@@ -4603,16 +4603,16 @@
         <v>2635.045976980643</v>
       </c>
       <c r="V5" t="n">
-        <v>2635.045976980643</v>
+        <v>2365.496040221761</v>
       </c>
       <c r="W5" t="n">
-        <v>2282.277321710528</v>
+        <v>2012.727384951646</v>
       </c>
       <c r="X5" t="n">
-        <v>1908.811563449448</v>
+        <v>1639.261626690567</v>
       </c>
       <c r="Y5" t="n">
-        <v>1518.672231473637</v>
+        <v>1249.122294714755</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K6" t="n">
-        <v>120.3087392029699</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L6" t="n">
-        <v>624.6702790690885</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M6" t="n">
-        <v>1265.215628536193</v>
+        <v>1527.036213178646</v>
       </c>
       <c r="N6" t="n">
-        <v>1917.389507838902</v>
+        <v>1820.852439770578</v>
       </c>
       <c r="O6" t="n">
-        <v>2466.825516591625</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P6" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q6" t="n">
         <v>2635.045976980643</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>650.1945570251878</v>
+        <v>516.4401435478233</v>
       </c>
       <c r="C7" t="n">
-        <v>481.2583740972809</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="D7" t="n">
-        <v>331.1417346849452</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E7" t="n">
-        <v>183.228641102552</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J7" t="n">
         <v>52.70091953961285</v>
@@ -4764,13 +4764,13 @@
         <v>1052.635600998958</v>
       </c>
       <c r="W7" t="n">
-        <v>1052.635600998958</v>
+        <v>763.218430961997</v>
       </c>
       <c r="X7" t="n">
-        <v>1052.635600998958</v>
+        <v>763.218430961997</v>
       </c>
       <c r="Y7" t="n">
-        <v>831.8430218554275</v>
+        <v>542.4258518184669</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1220.788153257384</v>
+        <v>1187.609344130066</v>
       </c>
       <c r="C8" t="n">
-        <v>1220.788153257384</v>
+        <v>1187.609344130066</v>
       </c>
       <c r="D8" t="n">
-        <v>862.5224546506331</v>
+        <v>829.3436455233157</v>
       </c>
       <c r="E8" t="n">
-        <v>476.7342020523889</v>
+        <v>443.5553929250714</v>
       </c>
       <c r="F8" t="n">
-        <v>65.74829726278134</v>
+        <v>436.609892175868</v>
       </c>
       <c r="G8" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H8" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
@@ -4840,16 +4840,16 @@
         <v>2635.045976980643</v>
       </c>
       <c r="V8" t="n">
-        <v>2337.161898764389</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="W8" t="n">
-        <v>1984.393243494275</v>
+        <v>1951.214434366958</v>
       </c>
       <c r="X8" t="n">
-        <v>1610.927485233195</v>
+        <v>1577.748676105878</v>
       </c>
       <c r="Y8" t="n">
-        <v>1220.788153257384</v>
+        <v>1187.609344130066</v>
       </c>
     </row>
     <row r="9">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,13 +5029,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5044,10 +5044,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,34 +5056,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
         <v>2129.438138565707</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,64 +5266,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1540.888753373306</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
         <v>2516.421633107662</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5506,25 +5506,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5533,10 +5533,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5600,22 +5600,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>379.6759351444937</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,43 +5734,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5843,10 +5843,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6220,25 +6220,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,22 +6247,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852889</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>155.0763917523266</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6445,13 +6445,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
         <v>484.8112968429803</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6837,22 +6837,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6928,19 +6928,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6964,7 +6964,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7356,19 +7356,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
         <v>1202.091371290588</v>
@@ -7399,49 +7399,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="44">
@@ -7630,31 +7630,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7669,28 +7669,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>1092.345997432834</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>923.4098145049275</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>773.2931750925917</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
   </sheetData>
@@ -7996,7 +7996,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7160950777412</v>
+        <v>123.7160950777387</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.3281211888728</v>
+        <v>7.3281211888727</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>198.1816426439657</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>461.1122511579958</v>
+        <v>299.9639383428411</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8297,7 +8297,7 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,16 +8306,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>458.0981188384286</v>
+        <v>96.12069185784534</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>37.16554713105234</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>138.4949402405068</v>
+        <v>65.54986409393072</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194133</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194174</v>
+        <v>22.81817176293617</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>20.61870490125434</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>138.4949402405077</v>
+        <v>260.4525338942707</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>131.6786642641544</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>6.257951202385129</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>712352.7143788787</v>
+        <v>712352.7143788788</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>712352.7143788787</v>
+        <v>712352.7143788788</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312484</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312477</v>
+        <v>718411.5486312476</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312476</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="E2" t="n">
-        <v>706253.2747287558</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="F2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="G2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="H2" t="n">
+        <v>706253.274728755</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="J2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="I2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287556</v>
-      </c>
       <c r="K2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.274728755</v>
       </c>
       <c r="L2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="M2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287555</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287554</v>
@@ -26355,7 +26355,7 @@
         <v>706253.2747287556</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.274728755</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918878</v>
+        <v>787455.5478918881</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.24700849981</v>
+        <v>4906.24700849942</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765851</v>
+        <v>775688.3472765842</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128077.5968157139</v>
+        <v>128077.5968157137</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909052</v>
+        <v>190891.9800909051</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26429,25 +26429,25 @@
         <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707312</v>
+        <v>6897.424496707412</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707412</v>
       </c>
       <c r="K4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
         <v>6897.424496707359</v>
@@ -26456,10 +26456,10 @@
         <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707386</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707414</v>
+        <v>6897.42449670736</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86500.62127051735</v>
+        <v>86500.62127051737</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26478,10 +26478,10 @@
         <v>86618.07783747558</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-346436.600622062</v>
+        <v>-346436.6006220624</v>
       </c>
       <c r="C6" t="n">
-        <v>436995.4113636535</v>
+        <v>436995.4113636537</v>
       </c>
       <c r="D6" t="n">
-        <v>441901.6583721532</v>
+        <v>441901.6583721534</v>
       </c>
       <c r="E6" t="n">
-        <v>-177802.4061228007</v>
+        <v>-177489.7647938788</v>
       </c>
       <c r="F6" t="n">
-        <v>597885.9411537838</v>
+        <v>598198.582482705</v>
       </c>
       <c r="G6" t="n">
-        <v>597885.9411537842</v>
+        <v>598198.5824827055</v>
       </c>
       <c r="H6" t="n">
-        <v>597885.9411537842</v>
+        <v>598198.5824827049</v>
       </c>
       <c r="I6" t="n">
-        <v>597885.9411537838</v>
+        <v>598198.5824827055</v>
       </c>
       <c r="J6" t="n">
-        <v>425524.9487535033</v>
+        <v>425837.5900824245</v>
       </c>
       <c r="K6" t="n">
-        <v>597885.9411537838</v>
+        <v>598198.5824827049</v>
       </c>
       <c r="L6" t="n">
-        <v>597885.9411537838</v>
+        <v>598198.582482705</v>
       </c>
       <c r="M6" t="n">
-        <v>469808.34433807</v>
+        <v>470120.9856669916</v>
       </c>
       <c r="N6" t="n">
-        <v>597885.9411537839</v>
+        <v>598198.5824827052</v>
       </c>
       <c r="O6" t="n">
-        <v>597885.941153784</v>
+        <v>598198.5824827055</v>
       </c>
       <c r="P6" t="n">
-        <v>597885.9411537843</v>
+        <v>598198.5824827049</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225501</v>
+        <v>588.0881844225505</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26798,10 +26798,10 @@
         <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26828,7 +26828,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225501</v>
+        <v>588.0881844225505</v>
       </c>
       <c r="C3" t="n">
-        <v>5.387915915515022</v>
+        <v>5.387915915514594</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036091</v>
+        <v>774.4994000036085</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544884</v>
+        <v>513.9467938544875</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451604</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544882</v>
+        <v>513.9467938544875</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544884</v>
+        <v>513.9467938544875</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>313.3418245699168</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.2627091761996</v>
+        <v>300.8522752759815</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359321</v>
+        <v>119.331086635932</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.504804251687439</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27520,7 +27520,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.504804251687233</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>152.7984799768616</v>
       </c>
       <c r="I4" t="n">
-        <v>123.5587419097207</v>
+        <v>123.5587419097206</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775194</v>
+        <v>18.38275699775188</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>105.2542924414416</v>
+        <v>105.254292441441</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>48.18644668392261</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -27675,7 +27675,7 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>60.8978210788419</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>154.1061289940001</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>33.89444555739044</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -27797,7 +27797,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>151.3430619299345</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,7 +27912,7 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>32.84702103604411</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -30756,7 +30756,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.364173605718793</v>
+        <v>2.364173605718794</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956759</v>
+        <v>24.21209293956761</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447383</v>
+        <v>91.1448029344739</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683755</v>
+        <v>200.6562795683757</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984521</v>
+        <v>300.7317482984523</v>
       </c>
       <c r="L2" t="n">
-        <v>373.0843262844687</v>
+        <v>373.0843262844689</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451702</v>
+        <v>415.1281986451705</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024187</v>
+        <v>421.8454069024191</v>
       </c>
       <c r="O2" t="n">
-        <v>398.3366556105525</v>
+        <v>398.3366556105528</v>
       </c>
       <c r="P2" t="n">
-        <v>339.9711197193698</v>
+        <v>339.97111971937</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.3041524645654</v>
+        <v>255.3041524645656</v>
       </c>
       <c r="R2" t="n">
-        <v>148.5085202602332</v>
+        <v>148.5085202602334</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031704</v>
+        <v>53.87360604031708</v>
       </c>
       <c r="T2" t="n">
-        <v>10.34916995903402</v>
+        <v>10.34916995903403</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1891338884575034</v>
+        <v>0.1891338884575035</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.264944396682466</v>
+        <v>1.264944396682467</v>
       </c>
       <c r="H3" t="n">
-        <v>12.2166998311175</v>
+        <v>12.21669983111751</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770773</v>
+        <v>43.55181365770775</v>
       </c>
       <c r="J3" t="n">
-        <v>119.5095054777939</v>
+        <v>119.509505477794</v>
       </c>
       <c r="K3" t="n">
-        <v>204.2607800555191</v>
+        <v>204.2607800555193</v>
       </c>
       <c r="L3" t="n">
-        <v>274.6538261305504</v>
+        <v>274.6538261305506</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102897</v>
+        <v>320.50806051029</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704981</v>
+        <v>328.9909551704984</v>
       </c>
       <c r="O3" t="n">
-        <v>300.9624503808498</v>
+        <v>300.96245038085</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489527</v>
+        <v>241.5488997489529</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.4690426361689</v>
+        <v>161.469042636169</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262910964</v>
+        <v>78.5375126291097</v>
       </c>
       <c r="S3" t="n">
-        <v>23.49578736820281</v>
+        <v>23.49578736820283</v>
       </c>
       <c r="T3" t="n">
-        <v>5.09861359890871</v>
+        <v>5.098613598908714</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753071</v>
+        <v>0.08322002609753076</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.060486889942303</v>
+        <v>1.060486889942304</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577939</v>
+        <v>9.428692530577948</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753764</v>
+        <v>31.89173301753766</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892083</v>
+        <v>74.97642311892089</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314785</v>
+        <v>123.2092950314786</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646948</v>
+        <v>157.6654781646949</v>
       </c>
       <c r="M4" t="n">
-        <v>166.2361403934103</v>
+        <v>166.2361403934104</v>
       </c>
       <c r="N4" t="n">
-        <v>162.2834165308982</v>
+        <v>162.2834165308983</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983903</v>
+        <v>149.8950014983905</v>
       </c>
       <c r="P4" t="n">
-        <v>128.2610689435672</v>
+        <v>128.2610689435674</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780506</v>
+        <v>88.80131584780513</v>
       </c>
       <c r="R4" t="n">
-        <v>47.68334688776937</v>
+        <v>47.6833468877694</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472177</v>
+        <v>18.48139425472178</v>
       </c>
       <c r="T4" t="n">
-        <v>4.531171257026203</v>
+        <v>4.531171257026207</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139842</v>
+        <v>0.05784473945139847</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>595.3275373121701</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>615.0381444378769</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32320,34 +32320,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>290.6810969936921</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32563,13 +32563,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,10 +32803,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.61037504168925</v>
+        <v>19.61037504168942</v>
       </c>
       <c r="K2" t="n">
-        <v>404.7873098246363</v>
+        <v>404.7873098246365</v>
       </c>
       <c r="L2" t="n">
-        <v>554.9791258649318</v>
+        <v>554.9791258649321</v>
       </c>
       <c r="M2" t="n">
-        <v>184.7819654178975</v>
+        <v>184.7819654178978</v>
       </c>
       <c r="N2" t="n">
-        <v>629.779267717812</v>
+        <v>629.7792677178123</v>
       </c>
       <c r="O2" t="n">
-        <v>549.0386254516111</v>
+        <v>549.0386254516114</v>
       </c>
       <c r="P2" t="n">
-        <v>232.4542190418414</v>
+        <v>232.4542190418391</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.99846259011593</v>
+        <v>32.99846259011613</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>66.41934108116013</v>
+        <v>330.8845780937389</v>
       </c>
       <c r="L3" t="n">
-        <v>506.9397916541354</v>
+        <v>136.0994463506764</v>
       </c>
       <c r="M3" t="n">
-        <v>376.5556692322371</v>
+        <v>644.0790903382715</v>
       </c>
       <c r="N3" t="n">
-        <v>658.7614942451606</v>
+        <v>497.6131814300061</v>
       </c>
       <c r="O3" t="n">
-        <v>552.2285252131348</v>
+        <v>552.2285252131351</v>
       </c>
       <c r="P3" t="n">
-        <v>426.0372609745597</v>
+        <v>426.0372609745598</v>
       </c>
       <c r="Q3" t="n">
-        <v>21.48726855014735</v>
+        <v>21.48726855014746</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055956</v>
+        <v>100.9398032055957</v>
       </c>
       <c r="L4" t="n">
-        <v>185.255503425011</v>
+        <v>185.2555034250111</v>
       </c>
       <c r="M4" t="n">
-        <v>205.8200173552509</v>
+        <v>205.820017355251</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101268</v>
+        <v>206.4155889101269</v>
       </c>
       <c r="O4" t="n">
-        <v>174.48012941243</v>
+        <v>174.4801294124301</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084607</v>
+        <v>125.5396282084608</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.639272596110672</v>
+        <v>2.639272596110743</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
@@ -35026,16 +35026,16 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>658.7614942451606</v>
+        <v>296.7840672645773</v>
       </c>
       <c r="O6" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P6" t="n">
-        <v>146.9530496838794</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9858252288368</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>472.9041105158586</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,25 +35968,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36211,13 +36211,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,10 +36451,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36840,13 +36840,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -37089,10 +37089,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
